--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhoutao\Downloads\Robot_Test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhoutao\PycharmProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E320F74-7335-415B-9B07-C96B1177E62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD91094A-CFB2-4E3C-85FC-92D3025D6D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,81 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>key</t>
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>login.username</t>
-  </si>
-  <si>
-    <t>login.password</t>
-  </si>
-  <si>
-    <t>zhoutao</t>
-  </si>
-  <si>
-    <t>Ztb547611679!!</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>semantic_version</t>
-  </si>
-  <si>
-    <t>general_setting</t>
-  </si>
-  <si>
-    <t>software_part_number</t>
-  </si>
-  <si>
-    <t>software_YMP_version</t>
-  </si>
-  <si>
-    <t>dependencies</t>
-  </si>
-  <si>
-    <t>file_upload_ODX_F</t>
-  </si>
-  <si>
-    <t>file_upload_flashware</t>
-  </si>
-  <si>
-    <t>1.2.0</t>
-  </si>
-  <si>
-    <t>Create new</t>
-  </si>
-  <si>
-    <t>A1234567890</t>
-  </si>
-  <si>
-    <t>01/01/00</t>
-  </si>
-  <si>
-    <t>A1234567890 01/01/00</t>
-  </si>
-  <si>
-    <t>1.0.0-alph</t>
-  </si>
-  <si>
-    <t>C:\Users\zhoutao\Downloads\1224 Automatic uploading MBOS test\0009047908_253629_FULL_IDC_GEN6PG_C_STAR35_AURIX_FBL.odx-f</t>
-  </si>
-  <si>
-    <t>C:\Users\zhoutao\Downloads\1224 Automatic uploading MBOS test\0019023738_254669.hex</t>
-  </si>
-  <si>
-    <t>C:\Users\xxx.excel</t>
-  </si>
-  <si>
-    <t>C:\Users\XXX.hex</t>
-  </si>
-  <si>
-    <t>user</t>
   </si>
 </sst>
 </file>
@@ -435,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,86 +386,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -543,10 +394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB662155-A666-48C9-9562-56804C161D8A}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,86 +414,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>123321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhoutao\PycharmProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhoutao\PycharmProjects\Robot_BTV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD91094A-CFB2-4E3C-85FC-92D3025D6D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD05264-B8E9-45AD-AD1F-209FD72ACC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>key</t>
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>login.username</t>
+  </si>
+  <si>
+    <t>login.password</t>
+  </si>
+  <si>
+    <t>zhoutao</t>
+  </si>
+  <si>
+    <t>Ztb547611679!!</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>semantic_version</t>
+  </si>
+  <si>
+    <t>general_setting</t>
+  </si>
+  <si>
+    <t>software_part_number</t>
+  </si>
+  <si>
+    <t>software_YMP_version</t>
+  </si>
+  <si>
+    <t>dependencies</t>
+  </si>
+  <si>
+    <t>file_upload_ODX_F</t>
+  </si>
+  <si>
+    <t>file_upload_flashware</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>Create new</t>
+  </si>
+  <si>
+    <t>A1234567890</t>
+  </si>
+  <si>
+    <t>01/01/00</t>
+  </si>
+  <si>
+    <t>A1234567890 01/01/00</t>
+  </si>
+  <si>
+    <t>1.0.0-alph</t>
+  </si>
+  <si>
+    <t>C:\Users\zhoutao\Downloads\1224 Automatic uploading MBOS test\0009047908_253629_FULL_IDC_GEN6PG_C_STAR35_AURIX_FBL.odx-f</t>
+  </si>
+  <si>
+    <t>C:\Users\zhoutao\Downloads\1224 Automatic uploading MBOS test\0019023738_254669.hex</t>
   </si>
 </sst>
 </file>
@@ -366,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,6 +446,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -394,10 +534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB662155-A666-48C9-9562-56804C161D8A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,6 +554,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhoutao\PycharmProjects\Robot_BTV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhoutao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD05264-B8E9-45AD-AD1F-209FD72ACC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9E5024-176C-4236-94FC-1A0E8C71841E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aurix_app" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>key</t>
   </si>
@@ -35,12 +35,6 @@
     <t>login.password</t>
   </si>
   <si>
-    <t>zhoutao</t>
-  </si>
-  <si>
-    <t>Ztb547611679!!</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
@@ -65,28 +59,7 @@
     <t>file_upload_flashware</t>
   </si>
   <si>
-    <t>1.2.0</t>
-  </si>
-  <si>
-    <t>Create new</t>
-  </si>
-  <si>
-    <t>A1234567890</t>
-  </si>
-  <si>
-    <t>01/01/00</t>
-  </si>
-  <si>
-    <t>A1234567890 01/01/00</t>
-  </si>
-  <si>
-    <t>1.0.0-alph</t>
-  </si>
-  <si>
-    <t>C:\Users\zhoutao\Downloads\1224 Automatic uploading MBOS test\0009047908_253629_FULL_IDC_GEN6PG_C_STAR35_AURIX_FBL.odx-f</t>
-  </si>
-  <si>
-    <t>C:\Users\zhoutao\Downloads\1224 Automatic uploading MBOS test\0019023738_254669.hex</t>
+    <t>test111</t>
   </si>
 </sst>
 </file>
@@ -428,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -459,71 +432,71 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -536,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB662155-A666-48C9-9562-56804C161D8A}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -567,71 +540,71 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
